--- a/Document/Security Module/Role & Permission.xlsx
+++ b/Document/Security Module/Role & Permission.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>Role</t>
   </si>
@@ -128,7 +128,13 @@
     <t>Position name</t>
   </si>
   <si>
-    <t>Position description</t>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Session name</t>
+  </si>
+  <si>
+    <t>Time to finish</t>
   </si>
 </sst>
 </file>
@@ -261,6 +267,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -268,15 +283,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -603,13 +609,13 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -694,16 +700,16 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -826,7 +832,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -839,15 +845,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -882,25 +888,35 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
